--- a/output/CodeSystem-improvement-status.xlsx
+++ b/output/CodeSystem-improvement-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T08:23:51+05:45</t>
+    <t>2025-05-20T11:38:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
